--- a/gbif-ipt-docs/downloads/occurrence_ipt_template_v1.xlsx
+++ b/gbif-ipt-docs/downloads/occurrence_ipt_template_v1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="7440" windowWidth="29340" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Occurrences" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1085,7 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/gbif-ipt-docs/downloads/occurrence_ipt_template_v1.xlsx
+++ b/gbif-ipt-docs/downloads/occurrence_ipt_template_v1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14960" yWindow="0" windowWidth="15400" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Occurrences" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="Occurrences" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -598,13 +599,78 @@
   </si>
   <si>
     <t>organismQuantityType</t>
+  </si>
+  <si>
+    <t>GBIF IPT Template:</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <r>
+      <t>#1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The header row shows required and recommended terms. Hover over the cell to find out if it's required or recommended, and to obtain a definition of the term examples. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Additional columns can be added, but you should use DwC term names: http://rs.tdwg.org/dwc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Columns can be reordered, but the header name (equal to a DwC term name) cannot be changed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Occurrence Data</t>
+  </si>
+  <si>
+    <t>Use this template for filling in occurrence data. Upload the template to the IPT where it can be published in Darwin Core Archive (DwC-A) format. Note this template must be mapped to the Occurrence Core in the IPT.</t>
+  </si>
+  <si>
+    <t>Occurrences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet is used to record a list of species at a particular place and normally on a specified date. Ideally locality information includes coordinates to support mapping. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,8 +732,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +796,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -707,6 +824,92 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -730,11 +933,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1082,10 +1321,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="83.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="4"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="4"/>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
